--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/86.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/86.xlsx
@@ -479,13 +479,13 @@
         <v>-10.19099547921018</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69198893716879</v>
+        <v>-10.69510490524512</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.983375130342774</v>
+        <v>-4.099896625634136</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.841136810029056</v>
+        <v>-6.694791048864242</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.550312250361619</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05061329660935</v>
+        <v>-11.05151666550543</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.019287317037628</v>
+        <v>-4.15878580381622</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.840940425486431</v>
+        <v>-6.716026764073522</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.915020895871221</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88247203456694</v>
+        <v>-11.88753875576669</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.776267991689509</v>
+        <v>-3.90036993032623</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.674419425642516</v>
+        <v>-6.54891661060173</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.353085051407204</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.74043682439093</v>
+        <v>-12.72950475151809</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.855554977699002</v>
+        <v>-4.011877073629211</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.024154111453545</v>
+        <v>-6.880308980131501</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.852075936796677</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.46010761929777</v>
+        <v>-13.43222101424489</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.610899114495667</v>
+        <v>-3.762782919762531</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.578269553572881</v>
+        <v>-6.454848414683928</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.419020371011943</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.15140739394659</v>
+        <v>-14.1217271434044</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.660361834631708</v>
+        <v>-3.829200172078608</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.749831090010859</v>
+        <v>-6.628714196422051</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.02450753284875</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.77283354832912</v>
+        <v>-14.72748181128538</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.489153790370456</v>
+        <v>-3.640212780558291</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.424395718274074</v>
+        <v>-6.340893010749545</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.657961601496121</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.68706905576685</v>
+        <v>-15.63751468951092</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.33103804895093</v>
+        <v>-3.486417499076536</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.194102111288112</v>
+        <v>-6.161449908000847</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.286899044643224</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.33892172195355</v>
+        <v>-16.2880450331106</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.317487515509744</v>
+        <v>-3.483393177120097</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.7633260708868</v>
+        <v>-5.719597779395435</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.891201929459442</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.88612761152633</v>
+        <v>-16.80157751977447</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.1754622142827</v>
+        <v>-3.328799265164995</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.53266587942127</v>
+        <v>-5.484774235626236</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.454128150459269</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.506467104773</v>
+        <v>-17.43186716318084</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.304918904781687</v>
+        <v>-3.433079457299343</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.937175576968201</v>
+        <v>-4.88687494945029</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.955958271375382</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.39806602059738</v>
+        <v>-18.33243430645181</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.082218833443926</v>
+        <v>-3.212749092775935</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.288897109457293</v>
+        <v>-4.244252356767007</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.399487735138445</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.11882347664009</v>
+        <v>-19.07870866073304</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.96513436913037</v>
+        <v>-3.097707027705689</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.742581496477748</v>
+        <v>-3.658306343085557</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.780529936974434</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.89064091376552</v>
+        <v>-19.82345121558178</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.8890549973171</v>
+        <v>-3.02778103822803</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.144512010364859</v>
+        <v>-3.062200702398927</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.112895767225182</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.75832019229808</v>
+        <v>-20.66505062685362</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.875072417882137</v>
+        <v>-3.034746143339828</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.553329075546718</v>
+        <v>-2.428284491105393</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.415969017141578</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.47465244998028</v>
+        <v>-21.37352750283078</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.795877077992535</v>
+        <v>-2.955223495879184</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.132319893065334</v>
+        <v>-2.008545261999655</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.715691464511066</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.38609929691272</v>
+        <v>-22.27387207695344</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.697488422136964</v>
+        <v>-2.865488852201993</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.896920287971099</v>
+        <v>-1.798047216910383</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.051442697431995</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.23021243033017</v>
+        <v>-23.11549767283096</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.715228492487503</v>
+        <v>-2.87039846576764</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.439566872801082</v>
+        <v>-1.302019139145908</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.4558709467277135</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.02695761206625</v>
+        <v>-23.92125035892215</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.494898127964095</v>
+        <v>-2.644516964839341</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.195460886317099</v>
+        <v>-1.080759221120737</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.03007700022622069</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.4827530431981</v>
+        <v>-24.36155759579224</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.336900217270145</v>
+        <v>-2.479815795090427</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.8053233539365042</v>
+        <v>-0.6897575967525883</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.3812804340381217</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.1452104746866</v>
+        <v>-25.02527188835354</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.13381241558929</v>
+        <v>-2.256369462490688</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6386059695499645</v>
+        <v>-0.5750428392533844</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5768978720181249</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.71318075656636</v>
+        <v>-25.59714367648014</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.129649063285621</v>
+        <v>-2.2497840341613</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2757135193830014</v>
+        <v>-0.1782936939377177</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6104107344823138</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.15110519431925</v>
+        <v>-26.03650826754562</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.081757419490587</v>
+        <v>-2.183890473958892</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.3121232135858416</v>
+        <v>-0.2318281202575356</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.4907331328018749</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.42750989191377</v>
+        <v>-26.31142044261619</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.73529580938999</v>
+        <v>-1.832335958052864</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2888974683446195</v>
+        <v>-0.217518233251529</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.2302093093846876</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.34767302918493</v>
+        <v>-26.22512907458637</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.641725120980174</v>
+        <v>-1.720894276264092</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.448126055505692</v>
+        <v>-0.3783571736621337</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.1416532230143992</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.283311268415</v>
+        <v>-26.12255088182145</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.717202246862725</v>
+        <v>-1.790506050473549</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3957699364416294</v>
+        <v>-0.3547124747299765</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.6013471624002925</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.44030107179014</v>
+        <v>-26.30652392135338</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.433910997973456</v>
+        <v>-1.50865495489687</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7286024592839895</v>
+        <v>-0.6939864105704657</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.116337584538003</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.36784826786403</v>
+        <v>-26.2015105602599</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.35087961335123</v>
+        <v>-1.408092976769572</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7973239569002096</v>
+        <v>-0.7729722736145992</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.666181820873546</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.17481535476562</v>
+        <v>-26.02484302571365</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.43067719917155</v>
+        <v>-1.487249039750648</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9362332900509233</v>
+        <v>-0.919278757870888</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.232762897570657</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.83525338826261</v>
+        <v>-25.69046561113596</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.344804784832669</v>
+        <v>-1.397723872918925</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.415346112543889</v>
+        <v>-1.4086035765804</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.803007873160592</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.85862314883509</v>
+        <v>-25.69719505479661</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.180417830351956</v>
+        <v>-1.22436869099163</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.716416708692221</v>
+        <v>-1.689682226289417</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.374926524781725</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.50502623368575</v>
+        <v>-25.34967296816583</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.154180855457137</v>
+        <v>-1.189556257735481</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.220836952578243</v>
+        <v>-2.185657934842526</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.939188792553616</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.94406033382632</v>
+        <v>-24.82033807197201</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.17832306189728</v>
+        <v>-1.203839960135804</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.321006161620289</v>
+        <v>-2.296392632277844</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.500247341277269</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.53665405399748</v>
+        <v>-24.39489059882727</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.34693883019587</v>
+        <v>-1.369352852660905</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.522928748348231</v>
+        <v>-2.521069641344706</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.051361637699192</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.88257569632769</v>
+        <v>-23.75326302115996</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.345760522940115</v>
+        <v>-1.369483775689322</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.70420477349477</v>
+        <v>-2.728923041259949</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.590823160010182</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.11861364090729</v>
+        <v>-22.99949986965327</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.329748636564684</v>
+        <v>-1.344464384958784</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.847591674217353</v>
+        <v>-2.842498768411922</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.116861698484864</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.72940566202846</v>
+        <v>-22.62617285412145</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.403615409197702</v>
+        <v>-1.423895386299536</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.165512064122988</v>
+        <v>-3.144629841090435</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.61968107412134</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.10744272322942</v>
+        <v>-21.9660851294473</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.309102074983282</v>
+        <v>-1.344071615873532</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.396015147954417</v>
+        <v>-3.370838649589778</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.103553759676425</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.61919147335293</v>
+        <v>-21.47830520247312</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.475871828581188</v>
+        <v>-1.515620060008669</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.627421600681925</v>
+        <v>-3.602087994683185</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.558893104720037</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.133375391805</v>
+        <v>-21.06737709317986</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.381122832915617</v>
+        <v>-1.438846796144787</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.628050031218328</v>
+        <v>-3.608437761561422</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.990190384386359</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.33069939688162</v>
+        <v>-20.20692476581594</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.104233720115952</v>
+        <v>-1.16876568082282</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.743419403859618</v>
+        <v>-3.711448000320123</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.39864662396703</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.49129949248719</v>
+        <v>-19.41337410597324</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.113450701316527</v>
+        <v>-1.174591755587388</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.88049581461249</v>
+        <v>-3.853957716752311</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.780339707699866</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.06867995675628</v>
+        <v>-18.98522961844311</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.130339771982354</v>
+        <v>-1.20039668448843</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.109296899074494</v>
+        <v>-4.075414019320108</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.144512769846575</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.57136883331331</v>
+        <v>-18.51264985506817</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.120756206302211</v>
+        <v>-1.187435304675121</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.217386951335786</v>
+        <v>-4.194802728933808</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.480882061270611</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.10581963656437</v>
+        <v>-18.0757989861483</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.085472450143759</v>
+        <v>-1.151104164289331</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.343649119941391</v>
+        <v>-4.347629180005276</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.796530292814364</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.35217431578326</v>
+        <v>-17.30189987287103</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.173492002148683</v>
+        <v>-1.249872496927313</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.658453541770695</v>
+        <v>-4.641695394133285</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.08671377374405</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.51150445801318</v>
+        <v>-16.44902798885246</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.101039198222571</v>
+        <v>-1.172981402337856</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.600218978730697</v>
+        <v>-4.605835576649798</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.34528210677388</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.86234880621188</v>
+        <v>-15.84498841264375</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.036782175875379</v>
+        <v>-1.136139662141239</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.836744521869321</v>
+        <v>-4.824738880163458</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.57765445239501</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.9916190211172</v>
+        <v>-14.9430465775744</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.00090926608905</v>
+        <v>-1.085551003960809</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.955125124164208</v>
+        <v>-4.953999186119819</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.77090544337285</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.19212445578436</v>
+        <v>-14.1563693767236</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.002676726972683</v>
+        <v>-1.0854855424466</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.142043931835531</v>
+        <v>-5.13270911990938</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.93354465575771</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.49536519085054</v>
+        <v>-13.4125825599823</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9465762092958868</v>
+        <v>-1.034805238146279</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.046417751879563</v>
+        <v>-5.026321067017514</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.05803377576017</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.7930155126033</v>
+        <v>-12.72052343176867</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9373854127009951</v>
+        <v>-1.038039036948185</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.124762092084453</v>
+        <v>-5.108933497948805</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.14645278167454</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.42444100300303</v>
+        <v>-12.36168959548264</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.135615970027569</v>
+        <v>-1.234318841151342</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.2970044282702</v>
+        <v>-5.277457620127503</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.20568025147818</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.73831268797669</v>
+        <v>-11.69629948815759</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.222679783925048</v>
+        <v>-1.326815960728137</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.773538067103345</v>
+        <v>-5.761178933220756</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.2279146443987</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.31642632120491</v>
+        <v>-11.27273730662207</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.234043902791666</v>
+        <v>-1.343691939091122</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.905835787318988</v>
+        <v>-5.896029652490535</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.22702774954676</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.54019677802181</v>
+        <v>-10.50239929971775</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.222444122473897</v>
+        <v>-1.333925081171194</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.364419878956126</v>
+        <v>-6.346902377753898</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.19508427674288</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.08191380935003</v>
+        <v>-10.01103208176493</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.420648495194788</v>
+        <v>-1.541503542726761</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.214696303658148</v>
+        <v>-6.180525393241243</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.14190452906719</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.505695376679988</v>
+        <v>-9.458183409667363</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.411444606297054</v>
+        <v>-1.528083932313992</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.441310973545584</v>
+        <v>-6.402767233979542</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.07058496747038</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.220492651575826</v>
+        <v>-9.162074796296045</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.492865637669749</v>
+        <v>-1.601859058827118</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.327787615604977</v>
+        <v>-6.277591726509799</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.97536498702722</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.600873234985457</v>
+        <v>-8.510785099131541</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.569010470997227</v>
+        <v>-1.695966531653445</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.725152099154205</v>
+        <v>-6.709323505018558</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.86862366101472</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.029184739098646</v>
+        <v>-7.934710681792751</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.490967253757699</v>
+        <v>-1.603417042865284</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.596297654585937</v>
+        <v>-6.56765169596824</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.73932516747625</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.563504619321292</v>
+        <v>-7.476833574509065</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.472703491293491</v>
+        <v>-1.606873410815499</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.666354567092013</v>
+        <v>-6.627195489292411</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.59742469163596</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.157014800691381</v>
+        <v>-7.040467120794336</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.616705730249636</v>
+        <v>-1.744512790590566</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.840010871984668</v>
+        <v>-6.808903560432727</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.43947589824637</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.72625185259291</v>
+        <v>-6.613422386702915</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.503090726189137</v>
+        <v>-1.625019342554132</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.006204564257539</v>
+        <v>-7.007697086781495</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.2645497451381</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.481451974058316</v>
+        <v>-6.380340119211666</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.664833035495821</v>
+        <v>-1.77920739312114</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.041658520352932</v>
+        <v>-7.03253318527225</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.08218236314755</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.352793914032674</v>
+        <v>-6.234190742589478</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.656165931014598</v>
+        <v>-1.768772827756284</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.100626252352067</v>
+        <v>-7.07925961411437</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.882660842143945</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.07810430811042</v>
+        <v>-5.958349014017151</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.596373383936435</v>
+        <v>-1.681316244773554</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.050796947736457</v>
+        <v>-7.048531979344839</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.67692146417216</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.985711926956358</v>
+        <v>-5.856713467056831</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.872476958565596</v>
+        <v>-1.971009629752426</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.081904259288399</v>
+        <v>-7.090571363769621</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.456260878571083</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.889143101195787</v>
+        <v>-5.743661432018527</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.824375837925095</v>
+        <v>-1.913783174031242</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.824928539110999</v>
+        <v>-6.826329415515064</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.22491803346878</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.629706028084144</v>
+        <v>-5.475714362059761</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.83989021679254</v>
+        <v>-1.923615493465378</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.725924545021867</v>
+        <v>-6.740470093479025</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.986755772408323</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.725672607913995</v>
+        <v>-5.550091734503606</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.92112795592545</v>
+        <v>-2.003452356194224</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.539372321830112</v>
+        <v>-6.566499573318168</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.734276714547351</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.797732642754855</v>
+        <v>-5.621732815653532</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.0091867848389</v>
+        <v>-2.091039862205371</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.374252198390263</v>
+        <v>-6.397386297511593</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.477672646720194</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.997337891879811</v>
+        <v>-5.830345569133595</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.870670220773438</v>
+        <v>-1.951096237130161</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.263753162406095</v>
+        <v>-6.315336835602496</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.206895807790112</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.153620710901495</v>
+        <v>-5.971991193578229</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.135016907450729</v>
+        <v>-2.195162946705619</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.120392446289195</v>
+        <v>-6.167799674879085</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.925997067716184</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.63341433314223</v>
+        <v>-6.449362739793245</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.111594777666881</v>
+        <v>-2.190148594717237</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.880214150657729</v>
+        <v>-5.94309648120654</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.63169865276522</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.089510887239442</v>
+        <v>-6.931316592002865</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.165417234649217</v>
+        <v>-2.237686746335545</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.939077144234131</v>
+        <v>-5.989836002351502</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.316778199055701</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.574894922793594</v>
+        <v>-7.414488028376766</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.113401515459039</v>
+        <v>-2.195542623488028</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.565553744159685</v>
+        <v>-5.622413615401301</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.986395373937688</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.967310515868649</v>
+        <v>-7.820349416470274</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.154341146445117</v>
+        <v>-2.211973463554395</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.404230388543937</v>
+        <v>-5.459964321741165</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.630060729101012</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.34914752824759</v>
+        <v>-8.18910721831033</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.418583094699674</v>
+        <v>-2.483494732188952</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.012678887456436</v>
+        <v>-5.062717668917513</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.251416517940448</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.251246470951042</v>
+        <v>-9.108304708525075</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.341600353990325</v>
+        <v>-2.411853651039026</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.002938214142191</v>
+        <v>-5.068046236174095</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.844824877682923</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.980160431664141</v>
+        <v>-9.858035430756519</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.430758936342479</v>
+        <v>-2.503224832571433</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.833353615433313</v>
+        <v>-4.89818669910554</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.408721593801793</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.73195973774458</v>
+        <v>-10.62045259444159</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.506288431436397</v>
+        <v>-2.543536033021108</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.505993675178795</v>
+        <v>-4.574806818914907</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.94822167397829</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.87401440693118</v>
+        <v>-11.75453405119759</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.583938879590674</v>
+        <v>-2.634920306856356</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.399383053138619</v>
+        <v>-4.474257933090451</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.460651475578251</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.6865227212887</v>
+        <v>-12.57263277886853</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.726985380439373</v>
+        <v>-2.777966807705055</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.032366527576513</v>
+        <v>-4.115515742924314</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.958821227275318</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.72235953752039</v>
+        <v>-13.59677816866255</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.823842236862462</v>
+        <v>-2.872637249553576</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.721764734959403</v>
+        <v>-3.781164512952314</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.447278049316093</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.71935149122067</v>
+        <v>-14.59640167523402</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.859832977374368</v>
+        <v>-2.902068746341776</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.267920056950969</v>
+        <v>-3.342192690972081</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.938631568205255</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.07604137319453</v>
+        <v>-15.97896194762313</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.759415014578328</v>
+        <v>-2.823763683045412</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.018472410907562</v>
+        <v>-3.089838553697811</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.446666651230017</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.504647274678</v>
+        <v>-17.39010271711573</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.004856415952167</v>
+        <v>-3.046084077600763</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.753562755208077</v>
+        <v>-2.810605918689478</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.97974307659714</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.97414043793617</v>
+        <v>-18.86347120201506</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.200455420407555</v>
+        <v>-3.249708663698128</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.6319221695056</v>
+        <v>-2.676854952858404</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.555752998859013</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.59464022217082</v>
+        <v>-20.50625408568632</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.405873651994237</v>
+        <v>-3.470746012574989</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.697462237531281</v>
+        <v>-2.723961058482935</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.180509212269348</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.07310161287558</v>
+        <v>-21.97764563285655</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.426336921335854</v>
+        <v>-3.459460447525422</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.582564187792293</v>
+        <v>-2.626920909820061</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.8649908914841021</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.06539661320955</v>
+        <v>-23.96869686442056</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.625025709261889</v>
+        <v>-3.70452217211685</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.55592135150938</v>
+        <v>-2.591833538204235</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.6130756395246677</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.23299754859425</v>
+        <v>-26.14491253507511</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.432490303671466</v>
+        <v>-3.503660061919089</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.710685463401424</v>
+        <v>-2.756718000192933</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4249783811441927</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.40920012694595</v>
+        <v>-28.31581273077592</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.930233473108208</v>
+        <v>-4.017454394639786</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.937313225591702</v>
+        <v>-2.960774632284076</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3012140481047865</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.45916672129774</v>
+        <v>-30.34470071755253</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.911184172473496</v>
+        <v>-3.99836581709655</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.270617071336364</v>
+        <v>-3.293999924211688</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2317452343321064</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.73040632597753</v>
+        <v>-32.60231123497409</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.071826728341475</v>
+        <v>-4.140155456872443</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.354748209397296</v>
+        <v>-3.377869216215784</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2095475516942484</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.22806421600215</v>
+        <v>-35.11514310399225</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.345482042339233</v>
+        <v>-4.430241610936568</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.782591573962062</v>
+        <v>-3.79197875509958</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2175684128287743</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.62684903496604</v>
+        <v>-37.52021222832018</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.206860739851037</v>
+        <v>-4.273487469012581</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.169665507477694</v>
+        <v>-4.197395004896469</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2402273155942491</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.24758766400571</v>
+        <v>-40.14705187048409</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.32459981930668</v>
+        <v>-4.397393023106677</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.420304553079697</v>
+        <v>-4.447890035167214</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2544915247255004</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.68631709893971</v>
+        <v>-42.59184304163382</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.479691238769767</v>
+        <v>-4.553165242317534</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.927592011288057</v>
+        <v>-4.966934381327444</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2440228453523349</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.05526455972731</v>
+        <v>-44.95296130532206</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.57035543594872</v>
+        <v>-4.637571318738142</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.139255271330243</v>
+        <v>-5.155188603888623</v>
       </c>
     </row>
   </sheetData>
